--- a/mapping_table/Categories.xlsx
+++ b/mapping_table/Categories.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laptop\Desktop\Information Studies Master\Master Thesis\AI Act Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laptop\Desktop\Information Studies Master\Master Thesis\AI Act Analysis\Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8615732-EFF4-4A90-92C7-E3C5763669A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5220440-C0D8-40BA-9680-D6B240DC4487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,15 +108,6 @@
     <t>Remedies</t>
   </si>
   <si>
-    <t>85-87</t>
-  </si>
-  <si>
-    <t>72-83</t>
-  </si>
-  <si>
-    <t>88-94</t>
-  </si>
-  <si>
     <t>Captures the oversight, enforcement, and systemic risk management responsibilities of the European Commission and the AI Office regarding general-purpose AI (GPAI) models</t>
   </si>
   <si>
@@ -127,13 +118,22 @@
   </si>
   <si>
     <t>Obligations that start after a system is placed on the market or put into service.</t>
+  </si>
+  <si>
+    <t>88-94, 22, 50</t>
+  </si>
+  <si>
+    <t>85-87, 9, 46, 23</t>
+  </si>
+  <si>
+    <t>6, 7, 9, 15, 25, 43, 43, 44, 46, 60, 73–76, 87</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,7 +142,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -150,36 +151,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="161"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="161"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="161"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -192,7 +167,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -209,36 +184,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -523,18 +480,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.77734375" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="2" max="2" width="39.21875" customWidth="1"/>
     <col min="3" max="3" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,125 +502,125 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="54" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="54" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:3" ht="90" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>10.15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:3" ht="54" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:3" ht="54" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="6" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="90" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="108" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="C12" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/mapping_table/Categories.xlsx
+++ b/mapping_table/Categories.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laptop\Desktop\Information Studies Master\Master Thesis\AI Act Analysis\Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5220440-C0D8-40BA-9680-D6B240DC4487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0632A4C-EDBD-43D2-BEC6-BAFD73DFE130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Categories</t>
   </si>
@@ -42,36 +42,24 @@
     <t>Requirements related to risk management, risk classification, and mitigation</t>
   </si>
   <si>
-    <t>6,7,8,9,15</t>
-  </si>
-  <si>
     <t>Transparency</t>
   </si>
   <si>
     <t>Requirements related to informing users, explainability, documentation of system behavior</t>
   </si>
   <si>
-    <t>13,50,14</t>
-  </si>
-  <si>
     <t>Accountability</t>
   </si>
   <si>
     <t>Requirements that deal with responsibility, oversight, auditability, human involvement</t>
   </si>
   <si>
-    <t>16-27</t>
-  </si>
-  <si>
     <t>Documentation</t>
   </si>
   <si>
     <t>Requirements about creating and maintaining documentation, logs, records, instructions, and technical files</t>
   </si>
   <si>
-    <t>11,12,18, Annex IV</t>
-  </si>
-  <si>
     <t>Data Governance</t>
   </si>
   <si>
@@ -99,12 +87,6 @@
     <t xml:space="preserve"> Unique regulatory framework for General Purpose AI models (GPAI), including foundation models</t>
   </si>
   <si>
-    <t>16-30, 31-42, 43-51, Annex V-VIII</t>
-  </si>
-  <si>
-    <t>51-56</t>
-  </si>
-  <si>
     <t>Remedies</t>
   </si>
   <si>
@@ -120,13 +102,34 @@
     <t>Obligations that start after a system is placed on the market or put into service.</t>
   </si>
   <si>
-    <t>88-94, 22, 50</t>
-  </si>
-  <si>
-    <t>85-87, 9, 46, 23</t>
-  </si>
-  <si>
-    <t>6, 7, 9, 15, 25, 43, 43, 44, 46, 60, 73–76, 87</t>
+    <t>6, 8, 10, 13, 20, 52, 88, 90</t>
+  </si>
+  <si>
+    <t>6, 9, 16, 29, 44, 47, 50, 71-73, 76, 80, 111</t>
+  </si>
+  <si>
+    <t>6, 51, 55, 79, 80, 84</t>
+  </si>
+  <si>
+    <t>6-11, 13, 14, 16, 17, 19, 20, 21, 23, 25-33, 35, 37, 40, 43, 46-48, 50, 53, 59, 60, 66, 70-72, 74, 78-80, 88, 90, 91</t>
+  </si>
+  <si>
+    <t>9, 13, 14, 16, 17, 31, 48, 50, 62, 72, 73, 78, 84, 85, 91</t>
+  </si>
+  <si>
+    <t>7, 10, 13, 16, 17, 20, 23, 27, 32, 33, 50, 53-55, 70, 72-74, 76, 87</t>
+  </si>
+  <si>
+    <t>6, 8-10, 13, 14, 16, 17, 19, 21-23, 29, 31, 33, 37, 43, 44, 46-48, 50, 60, 70, 72-76, 78, 80, 84, 86, 88, 90, 91</t>
+  </si>
+  <si>
+    <t>6, 8, 10, 13, 16, 17, 19, 21-23, 25, 28, 29, 31, 32,  36, 37, 43, 47, 48, 50, 54, 60, 70, 71, 74, 80, 85, 91</t>
+  </si>
+  <si>
+    <t>6, 12, 13, 27, 30, 31, 50, 59, 62, 70, 71, 80, 86</t>
+  </si>
+  <si>
+    <t>5, 6, 9, 10, 13, 15-17, 19-21, 23, 25, 26, 29, 31-33,  36, 40, 44, 46-48, 50-52, 55, 60, 69, 71-75, 79, 80, 87, 88, 90, 91, 93</t>
   </si>
 </sst>
 </file>
@@ -195,7 +198,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -480,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,7 +505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="54" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="108" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -510,117 +513,117 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="54" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="54" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="90" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4">
-        <v>10.15</v>
+      <c r="C6" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="54" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="108" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="54" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="54" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="90" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
+      </c>
+      <c r="C11" s="4">
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="108" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
